--- a/similarities/split_global/harmonic_similarity_timestamps_38.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_38.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,602 +484,644 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F']]</t>
+          <t>['F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:31.434580', '0:00:34.406734')]</t>
+          <t>('0:00:18', '0:00:26.460000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:05.776000', '0:00:09.009000')]</t>
+          <t>('0:00:14.920000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=31.43458']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=18.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_56</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+          <t>('0:01:14.879000', '0:01:25.949000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-56#t=21.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=59.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A:7', 'D:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['D:7', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:13.260000', '0:00:17.260000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:01:16.958000', '0:01:25.346000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=13.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=76.958</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['C:7', 'F:min/C', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:20.580000', '0:00:32.500000')]</t>
+          <t>('0:00:36.280000', '0:00:38')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
+          <t>('0:00:23.600000', '0:00:40.320000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=20.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=36.28</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=6.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=23.6</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['E:7', 'A:maj', 'E:7/G#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:22.500000', '0:01:30.740000')]</t>
+          <t>('0:00:24.120000', '0:00:27')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.860000', '0:00:05.140000')]</t>
+          <t>('0:00:07.020000', '0:00:15.100000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=7.02</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:25.040000', '0:02:27.860000'), ('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:00:57.480000', '0:01:08.700000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:00:01.829138', '0:00:17.282018')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=145.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:33.698526', '0:00:42.916848')]</t>
+          <t>('0:00:02.580000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:00:09.240000', '0:00:16.260000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:00:13.740000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:09.380000', '0:02:15.340000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:08.110136')]</t>
+          <t>('0:00:00.600000', '0:00:09.940000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['F/A', 'C:7/G', 'F/A']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Db', 'Ab:7', 'Db']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000'), ('0:04:32.560000', '0:04:34.520000')]</t>
+          <t>('0:00:00.240000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000'), ('0:00:47.340000', '0:00:50.710000')]</t>
+          <t>('0:01:08.640000', '0:01:23.840000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=272.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77', 'https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=47.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['C:7', 'F', 'C:dim7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['G:7', 'C', 'C#:dim7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000'), ('0:01:37.880000', '0:01:48.980000')]</t>
+          <t>('0:01:37.410000', '0:01:39.720000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:26.200000', '0:00:33.960000')]</t>
+          <t>('0:00:43.200000', '0:00:47.350000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=97.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=97.41</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=43.2</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:46.960000', '0:00:50.740000'), ('0:01:12.680000', '0:01:18.700000')]</t>
+          <t>('0:00:17.080000', '0:00:24.060000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:26.940000', '0:01:37.980000'), ('0:01:35.020000', '0:01:47.700000')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=72.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=17.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=86.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=95.02']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:24.340000')]</t>
+          <t>('0:00:19.140000', '0:00:28.440000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
+          <t>('0:01:17.720000', '0:01:35.680000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1087,103 +1129,105 @@
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb'], ['Bb', 'Bb:min', 'F']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab:7', 'Db'], ['Db', 'Db:min', 'Ab']]</t>
+          <t>['C:7', 'F', 'C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:17.737518', '0:00:22.996837'), ('0:00:21.278561', '0:00:26.514661')]</t>
+          <t>('0:00:06.360000', '0:00:13.580000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:21.850000', '0:01:27.540000'), ('0:02:09.120000', '0:02:11.120000')]</t>
+          <t>('0:00:39.386636', '0:00:52.146870')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=17.737518', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=21.278561']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=6.36</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=81.85', 'https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=129.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=39.386636</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:16.800000', '0:00:19.040000')]</t>
+          <t>('0:01:04.300000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
+          <t>('0:00:21.170000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
